--- a/CashFlow/WDC_cashflow.xlsx
+++ b/CashFlow/WDC_cashflow.xlsx
@@ -75,8 +75,8 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>9893000000.0</v>
+        <v>-592000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>13092000000.0</v>
+        <v>-460000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>12638000000.0</v>
+        <v>-80000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>9278000000.0</v>
+        <v>200000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>6365000000.0</v>
+        <v>336000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3261000000.0</v>
+        <v>299000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-169000000.0</v>
@@ -1014,22 +1014,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>271000000.0</v>
+        <v>7181000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>121000000.0</v>
+        <v>9220000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>32000000.0</v>
+        <v>8988000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>111000000.0</v>
+        <v>6810000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-431000000.0</v>
+        <v>3986000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-250000000.0</v>
+        <v>1978000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-56000000.0</v>
